--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\ManuLife\FormTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A2234E-5DF4-47FC-853C-2D8141E752BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3580A4DB-0623-4618-A5DE-44072E01C19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12396" yWindow="-17388" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CD3962-3158-491F-A238-4303703772DB}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,231 +493,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\ManuLife\FormTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3580A4DB-0623-4618-A5DE-44072E01C19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951FE308-AE14-435F-B168-DF28B87E98BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35715" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -372,11 +372,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -457,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CD3962-3158-491F-A238-4303703772DB}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A51"/>
     </sheetView>
   </sheetViews>
